--- a/data/Data for other 4 sites pH higher than 7.xlsx
+++ b/data/Data for other 4 sites pH higher than 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/xingjuan_zhu_wur_nl/Documents/PhD files 2021/Papers/2/Data for paper 2/4 Sites pH higher than 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESA\02 phd projects\04 xinghuan xu\phd_xingjuan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104880419A60525BDE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ABD4DB2-035C-4437-B947-09FFD65F8CFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D7352-E110-4483-8758-D831EAC4FB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="79">
   <si>
     <t>Year</t>
   </si>
@@ -260,6 +260,12 @@
   <si>
     <t>CaCO3_decrease_eq</t>
   </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +306,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,19 +586,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BO5" sqref="BO5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="40" width="8.88671875" style="2"/>
-    <col min="41" max="42" width="8.88671875" style="1"/>
-    <col min="43" max="68" width="8.88671875" style="2"/>
+    <col min="23" max="24" width="8.85546875" style="1"/>
+    <col min="25" max="40" width="8.85546875" style="2"/>
+    <col min="41" max="42" width="8.85546875" style="1"/>
+    <col min="43" max="68" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -794,8 +803,11 @@
       <c r="BP1" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="BQ1" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2031,7 +2043,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2237,7 +2249,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2455,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3679,7 +3691,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4091,7 +4103,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -4709,7 +4721,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -5121,7 +5133,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -5533,7 +5545,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5957,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -6151,7 +6163,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -6357,7 +6369,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -6563,7 +6575,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -6769,7 +6781,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -6975,7 +6987,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -7181,7 +7193,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -7387,7 +7399,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -7593,7 +7605,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -7799,7 +7811,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -8005,7 +8017,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -8211,7 +8223,7 @@
         <v>-7.4040772901453528E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -8417,7 +8429,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -8623,7 +8635,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -8829,7 +8841,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -9241,7 +9253,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -9447,7 +9459,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -9653,7 +9665,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -9859,7 +9871,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -10065,7 +10077,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -10271,7 +10283,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -10477,7 +10489,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -10683,7 +10695,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -10889,7 +10901,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -11095,7 +11107,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -11301,7 +11313,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -11507,7 +11519,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -11713,7 +11725,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -11919,7 +11931,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -12125,7 +12137,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -12331,7 +12343,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -12537,7 +12549,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -12743,7 +12755,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -12949,7 +12961,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -13155,7 +13167,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -13361,7 +13373,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -13567,7 +13579,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -13773,7 +13785,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -13979,7 +13991,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -14185,7 +14197,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -14391,7 +14403,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -14597,7 +14609,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -14803,7 +14815,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -15009,7 +15021,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -15215,7 +15227,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -15421,7 +15433,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -15627,7 +15639,7 @@
         <v>-0.36642966179034259</v>
       </c>
     </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -15833,7 +15845,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -16039,7 +16051,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -16245,7 +16257,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="77" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -16451,7 +16463,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -16657,7 +16669,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="79" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -16863,7 +16875,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="80" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -17069,7 +17081,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -17275,7 +17287,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -17481,7 +17493,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -17687,7 +17699,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -17893,7 +17905,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -18099,7 +18111,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -18305,7 +18317,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -18511,7 +18523,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -18717,7 +18729,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -18923,7 +18935,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="90" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -19129,7 +19141,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="91" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -19335,7 +19347,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="92" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -19541,7 +19553,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="93" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -19747,7 +19759,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="94" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -19953,7 +19965,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="95" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -20159,7 +20171,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="96" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -20365,7 +20377,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="97" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -20571,7 +20583,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="98" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -20777,7 +20789,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="99" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -20983,7 +20995,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="100" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -21189,7 +21201,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="101" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -21395,7 +21407,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="102" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -21601,7 +21613,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="103" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -21807,7 +21819,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="104" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -22013,7 +22025,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="105" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -22219,7 +22231,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="106" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -22425,7 +22437,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="107" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -22631,7 +22643,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="108" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -22837,7 +22849,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="109" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -23043,7 +23055,7 @@
         <v>-0.3265677237516757</v>
       </c>
     </row>
-    <row r="110" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -23249,7 +23261,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -23455,7 +23467,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -23661,7 +23673,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -23867,7 +23879,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -24073,7 +24085,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -24279,7 +24291,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -24485,7 +24497,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -24691,7 +24703,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -24897,7 +24909,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -25103,7 +25115,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -25309,7 +25321,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>70</v>
       </c>
@@ -25515,7 +25527,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -25721,7 +25733,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>70</v>
       </c>
@@ -25927,7 +25939,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>70</v>
       </c>
@@ -26133,7 +26145,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>70</v>
       </c>
@@ -26339,7 +26351,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>70</v>
       </c>
@@ -26545,7 +26557,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -26751,7 +26763,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -26957,7 +26969,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>70</v>
       </c>
@@ -27163,7 +27175,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>70</v>
       </c>
@@ -27369,7 +27381,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>70</v>
       </c>
@@ -27575,7 +27587,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>70</v>
       </c>
@@ -27781,7 +27793,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -27987,7 +27999,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -28193,7 +28205,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>70</v>
       </c>
@@ -28399,7 +28411,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>70</v>
       </c>
@@ -28605,7 +28617,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>70</v>
       </c>
@@ -28811,7 +28823,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>70</v>
       </c>
@@ -29017,7 +29029,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -29223,7 +29235,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>70</v>
       </c>
@@ -29429,7 +29441,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>70</v>
       </c>
@@ -29635,7 +29647,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -29841,7 +29853,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>70</v>
       </c>
@@ -30047,7 +30059,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>70</v>
       </c>
@@ -30253,7 +30265,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>70</v>
       </c>
@@ -30459,7 +30471,7 @@
         <v>-2.6112789175659401E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>73</v>
       </c>
@@ -30665,7 +30677,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="147" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>73</v>
       </c>
@@ -30871,7 +30883,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="148" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>73</v>
       </c>
@@ -31077,7 +31089,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="149" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>73</v>
       </c>
@@ -31283,7 +31295,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="150" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -31489,7 +31501,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="151" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>73</v>
       </c>
@@ -31695,7 +31707,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="152" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>73</v>
       </c>
@@ -31901,7 +31913,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="153" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>73</v>
       </c>
@@ -32107,7 +32119,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="154" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>73</v>
       </c>
@@ -32313,7 +32325,7 @@
         <v>-0.15584008636493268</v>
       </c>
     </row>
-    <row r="155" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>73</v>
       </c>
@@ -32519,7 +32531,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="156" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>73</v>
       </c>
@@ -32725,7 +32737,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="157" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>73</v>
       </c>
@@ -32931,7 +32943,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="158" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>73</v>
       </c>
@@ -33137,7 +33149,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="159" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>73</v>
       </c>
@@ -33343,7 +33355,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="160" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>73</v>
       </c>
@@ -33549,7 +33561,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="161" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>73</v>
       </c>
@@ -33755,7 +33767,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="162" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>73</v>
       </c>
@@ -33961,7 +33973,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="163" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>73</v>
       </c>
@@ -34167,7 +34179,7 @@
         <v>-0.12782150070386517</v>
       </c>
     </row>
-    <row r="164" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>73</v>
       </c>
@@ -34373,7 +34385,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="165" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>73</v>
       </c>
@@ -34579,7 +34591,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="166" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>73</v>
       </c>
@@ -34785,7 +34797,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="167" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>73</v>
       </c>
@@ -34991,7 +35003,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="168" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>73</v>
       </c>
@@ -35197,7 +35209,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="169" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>73</v>
       </c>
@@ -35403,7 +35415,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="170" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>73</v>
       </c>
@@ -35609,7 +35621,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="171" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>73</v>
       </c>
@@ -35815,7 +35827,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="172" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>73</v>
       </c>
@@ -36021,7 +36033,7 @@
         <v>-0.1625906175454796</v>
       </c>
     </row>
-    <row r="173" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>73</v>
       </c>
@@ -36227,7 +36239,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="174" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>73</v>
       </c>
@@ -36433,7 +36445,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="175" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>73</v>
       </c>
@@ -36639,7 +36651,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="176" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>73</v>
       </c>
@@ -36845,7 +36857,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="177" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>73</v>
       </c>
@@ -37051,7 +37063,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="178" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -37257,7 +37269,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="179" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>73</v>
       </c>
@@ -37463,7 +37475,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="180" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>73</v>
       </c>
@@ -37669,7 +37681,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="181" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>73</v>
       </c>
@@ -37875,7 +37887,7 @@
         <v>-0.17756913404217781</v>
       </c>
     </row>
-    <row r="182" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>74</v>
       </c>
@@ -38084,7 +38096,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="183" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>74</v>
       </c>
@@ -38293,7 +38305,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="184" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>74</v>
       </c>
@@ -38502,7 +38514,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="185" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>74</v>
       </c>
@@ -38711,7 +38723,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="186" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>74</v>
       </c>
@@ -38920,7 +38932,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="187" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>74</v>
       </c>
@@ -39129,7 +39141,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="188" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>74</v>
       </c>
@@ -39338,7 +39350,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="189" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>74</v>
       </c>
@@ -39547,7 +39559,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="190" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>74</v>
       </c>
@@ -39756,7 +39768,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="191" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>74</v>
       </c>
@@ -39965,7 +39977,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="192" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>74</v>
       </c>
@@ -40174,7 +40186,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="193" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>74</v>
       </c>
@@ -40383,7 +40395,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="194" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>74</v>
       </c>
@@ -40592,7 +40604,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="195" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>74</v>
       </c>
@@ -40801,7 +40813,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="196" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>74</v>
       </c>
@@ -41010,7 +41022,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="197" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>74</v>
       </c>
@@ -41219,7 +41231,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="198" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>74</v>
       </c>
@@ -41428,7 +41440,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="199" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>74</v>
       </c>
@@ -41637,7 +41649,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="200" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>74</v>
       </c>
@@ -41846,7 +41858,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="201" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>74</v>
       </c>
@@ -42055,7 +42067,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="202" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>74</v>
       </c>
@@ -42264,7 +42276,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="203" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>74</v>
       </c>
@@ -42473,7 +42485,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="204" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>74</v>
       </c>
@@ -42682,7 +42694,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="205" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>74</v>
       </c>
@@ -42891,7 +42903,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="206" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>74</v>
       </c>
@@ -43100,7 +43112,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="207" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>74</v>
       </c>
@@ -43309,7 +43321,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="208" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>74</v>
       </c>
@@ -43518,7 +43530,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="209" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>74</v>
       </c>
@@ -43727,7 +43739,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="210" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>74</v>
       </c>
@@ -43936,7 +43948,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="211" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>74</v>
       </c>
@@ -44145,7 +44157,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="212" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>74</v>
       </c>
@@ -44354,7 +44366,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="213" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>74</v>
       </c>
@@ -44563,7 +44575,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="214" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>74</v>
       </c>
@@ -44772,7 +44784,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="215" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>74</v>
       </c>
@@ -44981,7 +44993,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="216" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>74</v>
       </c>
@@ -45190,7 +45202,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="217" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>74</v>
       </c>
@@ -45399,7 +45411,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="218" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>74</v>
       </c>
@@ -45608,7 +45620,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="219" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>74</v>
       </c>
@@ -45817,7 +45829,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="220" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>74</v>
       </c>
@@ -46026,7 +46038,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="221" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>74</v>
       </c>
@@ -46235,7 +46247,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="222" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>74</v>
       </c>
@@ -46444,7 +46456,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="223" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>74</v>
       </c>
@@ -46653,7 +46665,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="224" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>74</v>
       </c>
@@ -46862,7 +46874,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="225" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>74</v>
       </c>
@@ -47071,7 +47083,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="226" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>74</v>
       </c>
@@ -47280,7 +47292,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="227" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>74</v>
       </c>
@@ -47489,7 +47501,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="228" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>74</v>
       </c>
@@ -47698,7 +47710,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="229" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>74</v>
       </c>
@@ -47907,7 +47919,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="230" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>74</v>
       </c>
@@ -48116,7 +48128,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="231" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>74</v>
       </c>
@@ -48325,7 +48337,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="232" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>74</v>
       </c>
@@ -48534,7 +48546,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="233" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>74</v>
       </c>
@@ -48743,7 +48755,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="234" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>74</v>
       </c>
@@ -48952,7 +48964,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="235" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>74</v>
       </c>
@@ -49161,7 +49173,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="236" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>74</v>
       </c>
@@ -49370,7 +49382,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="237" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>74</v>
       </c>
@@ -49579,7 +49591,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="238" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>74</v>
       </c>
@@ -49788,7 +49800,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="239" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>74</v>
       </c>
@@ -49997,7 +50009,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="240" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>74</v>
       </c>
@@ -50206,7 +50218,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="241" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>74</v>
       </c>
@@ -50415,7 +50427,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="242" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>74</v>
       </c>
@@ -50624,7 +50636,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="243" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>74</v>
       </c>
@@ -50833,7 +50845,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="244" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>74</v>
       </c>
@@ -51042,7 +51054,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="245" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>74</v>
       </c>
@@ -51251,7 +51263,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="246" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>74</v>
       </c>
@@ -51460,7 +51472,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="247" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>74</v>
       </c>
@@ -51669,7 +51681,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="248" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>74</v>
       </c>
@@ -51878,7 +51890,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="249" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>74</v>
       </c>
@@ -52087,7 +52099,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="250" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>74</v>
       </c>
@@ -52296,7 +52308,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="251" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>74</v>
       </c>
@@ -52505,7 +52517,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="252" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>74</v>
       </c>
@@ -52714,7 +52726,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="253" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>74</v>
       </c>
@@ -52923,7 +52935,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="254" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>74</v>
       </c>
@@ -53132,7 +53144,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="255" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>74</v>
       </c>
@@ -53341,7 +53353,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="256" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>74</v>
       </c>
@@ -53550,7 +53562,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="257" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>74</v>
       </c>
@@ -53723,7 +53735,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="258" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>74</v>
       </c>
@@ -53896,7 +53908,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="259" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>74</v>
       </c>
@@ -54069,7 +54081,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="260" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>74</v>
       </c>
@@ -54242,7 +54254,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="261" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>74</v>
       </c>
@@ -54415,7 +54427,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="262" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>74</v>
       </c>
@@ -54588,7 +54600,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="263" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>75</v>
       </c>
@@ -54794,7 +54806,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="264" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>75</v>
       </c>
@@ -55000,7 +55012,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="265" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>75</v>
       </c>
@@ -55206,7 +55218,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="266" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>75</v>
       </c>
@@ -55412,7 +55424,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="267" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>75</v>
       </c>
@@ -55618,7 +55630,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="268" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>75</v>
       </c>
@@ -55824,7 +55836,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="269" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>75</v>
       </c>
@@ -56030,7 +56042,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="270" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>75</v>
       </c>
@@ -56236,7 +56248,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="271" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>75</v>
       </c>
@@ -56442,7 +56454,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="272" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>75</v>
       </c>
@@ -56648,7 +56660,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="273" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>75</v>
       </c>
@@ -56854,7 +56866,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="274" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>75</v>
       </c>
@@ -57060,7 +57072,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="275" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>75</v>
       </c>
@@ -57266,7 +57278,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="276" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>75</v>
       </c>
@@ -57472,7 +57484,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="277" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>75</v>
       </c>
@@ -57678,7 +57690,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="278" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>75</v>
       </c>
@@ -57884,7 +57896,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="279" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>75</v>
       </c>
@@ -58090,7 +58102,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="280" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>75</v>
       </c>
@@ -58296,7 +58308,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="281" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>75</v>
       </c>
@@ -58502,7 +58514,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="282" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>75</v>
       </c>
@@ -58708,7 +58720,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="283" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>75</v>
       </c>
@@ -58914,7 +58926,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="284" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>75</v>
       </c>
@@ -59120,7 +59132,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="285" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>75</v>
       </c>
@@ -59326,7 +59338,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="286" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>75</v>
       </c>
@@ -59532,7 +59544,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="287" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>75</v>
       </c>
@@ -59738,7 +59750,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="288" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>75</v>
       </c>
@@ -59944,7 +59956,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="289" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>75</v>
       </c>
@@ -60150,7 +60162,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="290" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>75</v>
       </c>
@@ -60356,7 +60368,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="291" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>75</v>
       </c>
@@ -60562,7 +60574,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="292" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>75</v>
       </c>
@@ -60768,7 +60780,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="293" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>75</v>
       </c>
@@ -60974,7 +60986,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="294" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>75</v>
       </c>
@@ -61180,7 +61192,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="295" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>75</v>
       </c>
@@ -61386,7 +61398,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="296" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>75</v>
       </c>
@@ -61592,7 +61604,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="297" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>75</v>
       </c>
@@ -61798,7 +61810,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="298" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>75</v>
       </c>
@@ -62004,7 +62016,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="299" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>75</v>
       </c>
@@ -62210,7 +62222,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="300" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>75</v>
       </c>
@@ -62416,7 +62428,7 @@
         <v>-0.32191354210671563</v>
       </c>
     </row>
-    <row r="301" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>75</v>
       </c>
@@ -62622,7 +62634,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="302" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>75</v>
       </c>
@@ -62828,7 +62840,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="303" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>75</v>
       </c>
@@ -63034,7 +63046,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="304" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>75</v>
       </c>
@@ -63240,7 +63252,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="305" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>75</v>
       </c>
@@ -63446,7 +63458,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="306" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>75</v>
       </c>
@@ -63652,7 +63664,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="307" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>75</v>
       </c>
@@ -63858,7 +63870,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="308" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>75</v>
       </c>
@@ -64064,7 +64076,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="309" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>75</v>
       </c>
@@ -64270,7 +64282,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="310" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>75</v>
       </c>
@@ -64476,7 +64488,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="311" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>75</v>
       </c>
@@ -64682,7 +64694,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="312" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>75</v>
       </c>
@@ -64888,7 +64900,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="313" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>75</v>
       </c>
@@ -65094,7 +65106,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="314" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>75</v>
       </c>
@@ -65300,7 +65312,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="315" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -65506,7 +65518,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="316" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>75</v>
       </c>
@@ -65712,7 +65724,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="317" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>75</v>
       </c>
@@ -65918,7 +65930,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="318" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>75</v>
       </c>
@@ -66124,7 +66136,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="319" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>75</v>
       </c>
@@ -66330,7 +66342,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="320" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>75</v>
       </c>
@@ -66536,7 +66548,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="321" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>75</v>
       </c>
@@ -66742,7 +66754,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="322" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>75</v>
       </c>
@@ -66948,7 +66960,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="323" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>75</v>
       </c>
@@ -67154,7 +67166,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="324" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>75</v>
       </c>
@@ -67360,7 +67372,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="325" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>75</v>
       </c>
@@ -67566,7 +67578,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="326" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>75</v>
       </c>
@@ -67772,7 +67784,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="327" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>75</v>
       </c>
@@ -67978,7 +67990,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="328" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>75</v>
       </c>
@@ -68184,7 +68196,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="329" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>75</v>
       </c>
@@ -68390,7 +68402,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="330" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>75</v>
       </c>
@@ -68596,7 +68608,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="331" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>75</v>
       </c>
@@ -68802,7 +68814,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="332" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>75</v>
       </c>
@@ -69008,7 +69020,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="333" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>75</v>
       </c>
@@ -69214,7 +69226,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="334" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>75</v>
       </c>
@@ -69420,7 +69432,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="335" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>75</v>
       </c>
@@ -69626,7 +69638,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="336" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>75</v>
       </c>
@@ -69832,7 +69844,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="337" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>75</v>
       </c>
@@ -70038,7 +70050,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="338" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>75</v>
       </c>
@@ -70244,7 +70256,7 @@
         <v>-0.26248697504300517</v>
       </c>
     </row>
-    <row r="339" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>75</v>
       </c>
@@ -70450,7 +70462,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="340" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>75</v>
       </c>
@@ -70656,7 +70668,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="341" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>75</v>
       </c>
@@ -70862,7 +70874,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="342" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -71068,7 +71080,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="343" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>75</v>
       </c>
@@ -71274,7 +71286,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="344" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>75</v>
       </c>
@@ -71480,7 +71492,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="345" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>75</v>
       </c>
@@ -71686,7 +71698,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="346" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>75</v>
       </c>
@@ -71892,7 +71904,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="347" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>75</v>
       </c>
@@ -72098,7 +72110,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="348" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>75</v>
       </c>
@@ -72304,7 +72316,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="349" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>75</v>
       </c>
@@ -72510,7 +72522,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="350" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>75</v>
       </c>
@@ -72716,7 +72728,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="351" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>75</v>
       </c>
@@ -72922,7 +72934,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="352" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>75</v>
       </c>
@@ -73128,7 +73140,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="353" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>75</v>
       </c>
@@ -73334,7 +73346,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="354" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>75</v>
       </c>
@@ -73540,7 +73552,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="355" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>75</v>
       </c>
@@ -73746,7 +73758,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="356" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>75</v>
       </c>
@@ -73952,7 +73964,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="357" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>75</v>
       </c>
@@ -74158,7 +74170,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="358" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>75</v>
       </c>
@@ -74364,7 +74376,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="359" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>75</v>
       </c>
@@ -74570,7 +74582,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="360" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>75</v>
       </c>
@@ -74776,7 +74788,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="361" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>75</v>
       </c>
@@ -74982,7 +74994,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="362" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>75</v>
       </c>
@@ -75188,7 +75200,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="363" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>75</v>
       </c>
@@ -75394,7 +75406,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="364" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>75</v>
       </c>
@@ -75600,7 +75612,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="365" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>75</v>
       </c>
@@ -75806,7 +75818,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="366" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>75</v>
       </c>
@@ -76012,7 +76024,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="367" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>75</v>
       </c>
@@ -76218,7 +76230,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="368" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>75</v>
       </c>
@@ -76424,7 +76436,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="369" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>75</v>
       </c>
@@ -76630,7 +76642,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="370" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>75</v>
       </c>
@@ -76836,7 +76848,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="371" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>75</v>
       </c>
@@ -77042,7 +77054,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="372" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>75</v>
       </c>
@@ -77248,7 +77260,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="373" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>75</v>
       </c>
@@ -77454,7 +77466,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="374" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>75</v>
       </c>
@@ -77660,7 +77672,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="375" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>75</v>
       </c>
@@ -77866,7 +77878,7 @@
         <v>-0.45095586592464421</v>
       </c>
     </row>
-    <row r="376" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>75</v>
       </c>
@@ -78073,7 +78085,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BR376" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
